--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320" tabRatio="617"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7320" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,38 +455,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +494,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -888,27 +888,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="34.875" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="17.08984375" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -958,7 +958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" ht="95.15" customHeight="1">
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="D23" t="s">
         <v>64</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1582,11 +1582,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E25">
@@ -1621,13 +1621,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="M26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15">
       <c r="B35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15">
       <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15">
       <c r="B37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15">
       <c r="B38" s="13" t="s">
         <v>112</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15">
       <c r="B39" s="13" t="s">
         <v>112</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15">
       <c r="B40" s="13" t="s">
         <v>112</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="108" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" ht="101.5">
       <c r="B41" s="13" t="s">
         <v>112</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="108" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" ht="101.5">
       <c r="B42" s="13" t="s">
         <v>112</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15">
       <c r="M43" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15">
       <c r="M44" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2359,241 +2359,241 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15">
       <c r="M45" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15">
       <c r="M46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15">
       <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15">
       <c r="M48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="13:13">
       <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="13:13">
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="13:13">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="13:13">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="13:13">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="13:13">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="13:13">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="13:13">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="13:13">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="13:13">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="13:13">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="13:13">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="13:13">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="13:13">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="13:13">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="13:13">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="13:13">
       <c r="M65" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="13:13">
       <c r="M66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="13:13">
       <c r="M67" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="13:13">
       <c r="M68" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="13:13">
       <c r="M69" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="13:13">
       <c r="M70" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="13:13">
       <c r="M71" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="13:13">
       <c r="M72" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="13:13">
       <c r="M73" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="13:13">
       <c r="M74" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="13:13">
       <c r="M75" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="13:13">
       <c r="M76" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="13:13">
       <c r="M77" s="3">
         <f t="shared" ref="M77:M84" si="4">L77/3600</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="13:13">
       <c r="M78" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="13:13">
       <c r="M79" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="13:13">
       <c r="M80" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="13:13">
       <c r="M81" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="13:13">
       <c r="M82" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="13:13">
       <c r="M83" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="13:13">
       <c r="M84" s="3">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7320" tabRatio="617"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
   <si>
     <t>nothing</t>
   </si>
@@ -431,9 +431,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-400,-200,-1001</t>
-  </si>
-  <si>
     <t>Uin1 = -0.00025;
 Uin2 = -0.0000;
 Uin3 = 0.00025;(corrected)
@@ -450,43 +447,59 @@
     <t>Sol0916TLGSmaPot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>0912</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0917TLGSmaPotFBFE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-400,-200,-1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +507,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -888,27 +901,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="34.90625" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" customWidth="1"/>
-    <col min="16" max="16" width="17.08984375" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
@@ -958,7 +971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
@@ -974,7 +987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1018,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1027,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1036,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1158,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1184,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1197,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1210,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1226,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="95.15" customHeight="1">
+    <row r="19" spans="2:16" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>64</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1621,13 +1634,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="M26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1672,7 +1685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1762,7 +1775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -1897,7 +1910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2026,7 +2039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
@@ -2071,7 +2084,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2116,7 +2129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
         <v>112</v>
       </c>
@@ -2161,7 +2174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B39" s="13" t="s">
         <v>112</v>
       </c>
@@ -2206,7 +2219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B40" s="13" t="s">
         <v>112</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="101.5">
+    <row r="41" spans="2:15" ht="108" x14ac:dyDescent="0.15">
       <c r="B41" s="13" t="s">
         <v>112</v>
       </c>
@@ -2296,15 +2309,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="101.5">
+    <row r="42" spans="2:15" ht="108" x14ac:dyDescent="0.15">
       <c r="B42" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="12">
         <v>0</v>
@@ -2325,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L42" s="12">
         <v>37098</v>
@@ -2338,10 +2351,22 @@
         <v>22</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="M43" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2350,7 +2375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M44" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2359,241 +2384,241 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M45" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="13:13">
+    <row r="49" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="13:13">
+    <row r="50" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="13:13">
+    <row r="51" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="13:13">
+    <row r="52" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:13">
+    <row r="53" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:13">
+    <row r="54" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:13">
+    <row r="55" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:13">
+    <row r="56" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:13">
+    <row r="57" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:13">
+    <row r="58" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:13">
+    <row r="59" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:13">
+    <row r="61" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:13">
+    <row r="62" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:13">
+    <row r="63" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:13">
+    <row r="64" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="13:13">
+    <row r="65" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M65" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="13:13">
+    <row r="66" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="13:13">
+    <row r="67" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M67" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="13:13">
+    <row r="68" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M68" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="13:13">
+    <row r="69" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M69" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="13:13">
+    <row r="70" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M70" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="13:13">
+    <row r="71" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M71" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="13:13">
+    <row r="72" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M72" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="13:13">
+    <row r="73" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M73" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="13:13">
+    <row r="74" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M74" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="13:13">
+    <row r="75" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M75" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="13:13">
+    <row r="76" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M76" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="13:13">
+    <row r="77" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M77" s="3">
         <f t="shared" ref="M77:M84" si="4">L77/3600</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="13:13">
+    <row r="78" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M78" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="13:13">
+    <row r="79" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M79" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="13:13">
+    <row r="80" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M80" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="13:13">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M81" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="13:13">
+    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M82" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="13:13">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M83" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="13:13">
+    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M84" s="3">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>nothing</t>
   </si>
@@ -461,6 +461,26 @@
   </si>
   <si>
     <t>-400,-200,-1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0919TLGExpPotLM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200,20,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp pot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -591,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
@@ -901,10 +922,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2371,17 +2392,53 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N43" s="4" t="s">
-        <v>45</v>
+      <c r="N43" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.01</v>
+      </c>
+      <c r="I44">
+        <v>0.01</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L44">
+        <v>9865</v>
+      </c>
       <c r="M44" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>45</v>
+        <v>2.7402777777777776</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
@@ -2389,116 +2446,137 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N45" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N46" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N47" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N48" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N49" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N51" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
   <si>
     <t>nothing</t>
   </si>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>exp pot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0920TLGExpPotLMFB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
@@ -2442,12 +2454,48 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="12">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F45" s="14">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L45">
+        <v>36183</v>
+      </c>
       <c r="M45" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>45</v>
+        <v>10.050833333333333</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320" tabRatio="617"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
   <si>
     <t>nothing</t>
   </si>
@@ -493,6 +493,34 @@
   </si>
   <si>
     <t>Sol0920TLGExpPotLMFB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0922TLGTheoPotLM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0923</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -935,9 +963,9 @@
   <dimension ref="B1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -2499,15 +2527,54 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G46">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.01</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46">
+        <v>67190</v>
+      </c>
       <c r="M46" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>45</v>
+        <v>18.663888888888888</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="M47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="150">
   <si>
     <t>nothing</t>
   </si>
@@ -521,6 +521,13 @@
   </si>
   <si>
     <t>0923</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0923TLGTheoPotNearEdge</t>
+  </si>
+  <si>
+    <t>-1,1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -962,10 +969,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2548,11 +2555,11 @@
       <c r="H46">
         <v>0.01</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J46">
         <v>4</v>
-      </c>
-      <c r="J46">
-        <v>0.01</v>
       </c>
       <c r="K46" s="18" t="s">
         <v>145</v>
@@ -2575,12 +2582,39 @@
       <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F47" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G47" s="14">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H47">
+        <v>2E-3</v>
+      </c>
+      <c r="I47">
+        <v>2E-3</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47">
+        <v>72430</v>
+      </c>
       <c r="M47" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>45</v>
+        <v>20.119444444444444</v>
+      </c>
+      <c r="N47" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>nothing</t>
   </si>
@@ -528,6 +528,29 @@
   </si>
   <si>
     <t>-1,1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>theo pot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0924</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0924TLGTheoPotMT</t>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -969,10 +992,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2574,6 +2597,9 @@
       <c r="N46" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="O46" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
@@ -2616,17 +2642,59 @@
       <c r="N47" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="O47" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F48" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G48" s="12">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="J48" s="12">
+        <v>4</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48">
+        <v>68018</v>
+      </c>
       <c r="M48" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.15">
+        <v>18.893888888888888</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="M49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2635,7 +2703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2644,7 +2712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2653,79 +2721,79 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
   <si>
     <t>nothing</t>
   </si>
@@ -551,6 +551,18 @@
   </si>
   <si>
     <t>0925</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0925TLGTheoPotMTNearEdge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1007,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2687,23 +2699,62 @@
       <c r="N48" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O48" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G49" s="14">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="I49" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="J49" s="12">
+        <v>4</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49">
+        <v>124146</v>
+      </c>
       <c r="M49" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+        <v>34.484999999999999</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2712,7 +2763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2721,79 +2772,79 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
   <si>
     <t>nothing</t>
   </si>
@@ -563,6 +563,14 @@
   </si>
   <si>
     <t>0927</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>three files</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,1,2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1005,9 +1013,9 @@
   <dimension ref="B1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2755,12 +2763,39 @@
       <c r="C50" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G50">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>0.2</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>160</v>
+      </c>
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N50" s="4" t="s">
-        <v>45</v>
+      <c r="N50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
@@ -2777,194 +2812,284 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N52" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N53" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N54" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N55" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N56" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N57" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N58" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N59" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N60" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N61" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N62" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N63" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N64" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M65" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N65" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N66" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M67" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N67" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M68" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N68" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M69" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N69" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M70" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N70" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M71" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N71" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M72" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N72" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M73" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N73" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M74" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N74" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M75" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N75" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M76" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N76" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M77" s="3">
         <f t="shared" ref="M77:M84" si="4">L77/3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N77" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M78" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N78" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M79" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N79" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M80" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N80" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M81" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="N81" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M82" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M83" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M84" s="3">
         <f t="shared" si="4"/>
         <v>0</v>

--- a/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
+++ b/TLGAnalyticTheory/data/MMAdata/TLG data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" tabRatio="617"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
   <si>
     <t>nothing</t>
   </si>
@@ -431,146 +431,115 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>-400,-200,-1001</t>
+  </si>
+  <si>
+    <t>0916</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0916TLGSmaPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0929</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0929TLGSmaPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-400,-200,-1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Uin1 = -0.00025;
 Uin2 = -0.0000;
 Uin3 = 0.00025;(corrected)
 Uout1 = 0.00015;
 Uout2 = 0.0004;
-Uout3 = 0.00066;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0916</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0916TLGSmaPot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0917</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0917TLGSmaPotFBFE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-400,-200,-1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0919</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0919TLGExpPotLM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-200,20,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp pot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0920TLGExpPotLMFB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0922</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0922TLGTheoPotLM</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emax</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0923</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0923TLGTheoPotNearEdge</t>
-  </si>
-  <si>
-    <t>-1,1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>theo pot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0924</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0924TLGTheoPotMT</t>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0925</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sol0925TLGTheoPotMTNearEdge</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0927</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>three files</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,1,2</t>
+Uout3 = 0.00065;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uin1 = -0.0006;
+Uin2 = 0.0000;
+Uin3 = 0.0006;
+Uout1 = -0.0001;
+Uout2 = 0.0005;
+Uout3 = 0.0011;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0929</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0930TLGBigPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200,-200,-800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>saved</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vtemp = 0.01;Utemp = 0.0005;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0930TLGBigPotCut</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-400,-200,-800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0929</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol1009HomoPot</t>
+  </si>
+  <si>
+    <t>-20,20,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0929</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol1010HomoPot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>homo pot (0.1meV off)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1010,12 +979,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q84"/>
+  <dimension ref="B1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,7 +994,7 @@
     <col min="4" max="4" width="34.875" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="15" max="15" width="17.75" customWidth="1"/>
     <col min="16" max="16" width="17.125" customWidth="1"/>
@@ -1049,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -1303,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" ref="M13:M76" si="0">L13/3600</f>
+        <f t="shared" ref="M13:M77" si="0">L13/3600</f>
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
@@ -2449,7 +2418,7 @@
         <v>40</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L42" s="12">
         <v>37098</v>
@@ -2462,11 +2431,11 @@
         <v>22</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="81" x14ac:dyDescent="0.15">
+      <c r="B43" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2475,330 +2444,252 @@
       <c r="D43" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="E43">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F43" s="14">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G43">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>0.1</v>
+      </c>
+      <c r="J43">
+        <v>40</v>
+      </c>
       <c r="K43" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="L43">
+        <v>39379</v>
+      </c>
       <c r="M43" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.938611111111111</v>
       </c>
       <c r="N43" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="O43" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="44" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E44">
-        <v>-3.0000000000000001E-3</v>
+      <c r="D44" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2E-3</v>
       </c>
       <c r="F44" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0.01</v>
-      </c>
-      <c r="I44">
-        <v>0.01</v>
-      </c>
-      <c r="J44">
+      <c r="G44" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H44" s="12">
         <v>4</v>
       </c>
-      <c r="K44" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L44">
-        <v>9865</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7402777777777776</v>
+      <c r="I44" s="12">
+        <v>35</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="12">
+        <v>33920</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" ref="M44" si="4">L44/3600</f>
+        <v>9.4222222222222225</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45">
+        <v>2E-3</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G45">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>35</v>
+      </c>
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="O45" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="12">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F45" s="14">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I45">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L45">
-        <v>36183</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="0"/>
-        <v>10.050833333333333</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:15" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46">
-        <v>1.4999999999999999E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F46" s="14">
-        <v>1.0000000000000001E-5</v>
+        <v>0.15</v>
       </c>
       <c r="G46">
-        <v>6.5500000000000003E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H46">
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0.01</v>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L46">
-        <v>67190</v>
+        <v>9000</v>
       </c>
       <c r="M46" s="3">
         <f t="shared" si="0"/>
-        <v>18.663888888888888</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" ht="27" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" t="s">
         <v>148</v>
       </c>
-      <c r="E47">
-        <v>2.4E-2</v>
+      <c r="D47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="12">
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="F47" s="14">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G47" s="14">
-        <v>2.5499999999999998E-2</v>
+        <v>0.15</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1E-4</v>
       </c>
       <c r="H47">
-        <v>2E-3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2E-3</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>149</v>
+        <v>0.02</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>72430</v>
+        <v>8000</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="0"/>
-        <v>20.119444444444444</v>
-      </c>
-      <c r="N47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="12" t="s">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F48" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G48" s="12">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="H48" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="J48" s="12">
-        <v>4</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L48">
-        <v>68018</v>
-      </c>
       <c r="M48" s="3">
         <f t="shared" si="0"/>
-        <v>18.893888888888888</v>
-      </c>
-      <c r="N48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F49" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G49" s="14">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="H49" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="I49" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="J49" s="12">
-        <v>4</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L49">
-        <v>124146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M49" s="3">
         <f t="shared" si="0"/>
-        <v>34.484999999999999</v>
-      </c>
-      <c r="N49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="G50">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H50">
-        <v>0.2</v>
-      </c>
-      <c r="I50">
-        <v>0.2</v>
-      </c>
-      <c r="J50">
-        <v>50</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M51" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2807,7 +2698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M52" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2816,7 +2707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M53" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2825,7 +2716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M54" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2834,7 +2725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M55" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2843,7 +2734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M56" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2852,7 +2743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M57" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2861,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M58" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2870,7 +2761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M59" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2879,7 +2770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2888,7 +2779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2897,201 +2788,147 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N62" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M63" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N63" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N64" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M65" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N65" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N66" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M67" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N67" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M68" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N68" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M69" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N69" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M70" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N70" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M71" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N71" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M72" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N72" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M73" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N73" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M74" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N74" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M75" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N75" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M76" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M77" s="3">
-        <f t="shared" ref="M77:M84" si="4">L77/3600</f>
-        <v>0</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M78" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" ref="M78:M85" si="5">L78/3600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M79" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M80" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M81" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M82" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M83" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M85" s="3">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
